--- a/2019/Jensen/Jensen Report.xlsx
+++ b/2019/Jensen/Jensen Report.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Yearly Reports\2018\Jensen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Jensen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ADC230-2EEE-4ACB-8A9A-0233D83F4AF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31A059E-2A4C-40B7-840A-2F038DAD9510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId3"/>
+    <sheet name="2019" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -91,12 +98,33 @@
   <si>
     <t>Fair</t>
   </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Fishing Report 2019 Jensen</t>
+  </si>
+  <si>
+    <t>3 Rainbow</t>
+  </si>
+  <si>
+    <t>6 Rainbow</t>
+  </si>
+  <si>
+    <t>12 Rainbow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +199,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -222,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,6 +295,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +573,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,13 +959,13 @@
             <c:numRef>
               <c:f>'Overall Stats'!$A$6:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>23.076923076923077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>76.923076923076934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,7 +2710,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E2" sqref="E2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,11 +2833,273 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993163A3-77D4-497A-ACDE-EFF880010B36}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5">
+        <f>SUM(G4/E10*100)</f>
+        <v>100</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="8">
+        <f>SUM(E4:E9)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="22">
+        <f>AVERAGE(E4:E9)</f>
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="E13" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B4AEE1-C76E-4341-A5D5-87F4B0EF364F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,8 +3130,8 @@
         <v>9</v>
       </c>
       <c r="B3" s="5">
-        <f>SUM('2017'!E4)</f>
-        <v>1</v>
+        <f>SUM('2017'!E4+'2019'!G4)</f>
+        <v>30</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2840,13 +3153,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="24">
         <f>SUM(A3/$B$8*100)</f>
-        <v>90</v>
-      </c>
-      <c r="B6" s="5">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="B6" s="24">
         <f>SUM(B3/$B$8*100)</f>
-        <v>10</v>
+        <v>76.923076923076934</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2854,8 +3167,8 @@
         <v>8</v>
       </c>
       <c r="B8" s="7">
-        <f>SUM('2017'!C5+'2018'!C5)</f>
-        <v>10</v>
+        <f>SUM('2017'!C5+'2018'!C5+'2019'!E10)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2863,16 +3176,17 @@
         <v>9</v>
       </c>
       <c r="B9" s="7">
-        <v>2</v>
+        <f>SUM('2017'!C6+'2018'!C6+'2019'!E11)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="23">
         <f>SUM(B8/B9)</f>
-        <v>5</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/2019/Jensen/Jensen Report.xlsx
+++ b/2019/Jensen/Jensen Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Jensen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31A059E-2A4C-40B7-840A-2F038DAD9510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A265C47-3373-4CAA-908F-EAB8751380EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
+    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -291,15 +291,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -312,6 +303,15 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2611,12 +2611,12 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -2657,12 +2657,12 @@
         <f>SUM(C4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2738,12 +2738,12 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2784,12 +2784,12 @@
         <f>SUM(C4)</f>
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2836,7 +2836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993163A3-77D4-497A-ACDE-EFF880010B36}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2864,26 +2864,26 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2906,7 +2906,7 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5">
@@ -2931,7 +2931,7 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5">
@@ -2945,18 +2945,18 @@
       <c r="F5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
@@ -2978,7 +2978,7 @@
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5">
@@ -3001,7 +3001,7 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
@@ -3024,7 +3024,7 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5"/>
@@ -3070,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <f>AVERAGE(E4:E9)</f>
         <v>4.833333333333333</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="18"/>
       <c r="E13" s="13" t="s">
         <v>19</v>
       </c>
@@ -3098,7 +3098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B4AEE1-C76E-4341-A5D5-87F4B0EF364F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3109,12 +3109,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3137,12 +3137,12 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3153,11 +3153,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <f>SUM(A3/$B$8*100)</f>
         <v>23.076923076923077</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <f>SUM(B3/$B$8*100)</f>
         <v>76.923076923076934</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <f>SUM(B8/B9)</f>
         <v>4.875</v>
       </c>
